--- a/1.GDD/開發文件.xlsx
+++ b/1.GDD/開發文件.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="標準文件" sheetId="1" r:id="rId1"/>
     <sheet name="參考資料" sheetId="2" r:id="rId2"/>
+    <sheet name="人類開圖動作V0202" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <r>
       <rPr>
@@ -51,7 +52,7 @@
       </rPr>
       <t>對抗關卡制</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -145,7 +146,7 @@
       </rPr>
       <t>未定</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -153,10 +154,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>心智圖</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,10 +167,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>遊戲類型</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -192,7 +197,7 @@
       </rPr>
       <t xml:space="preserve"> PartyGame</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -200,10 +205,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>遊戲機制</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -211,10 +218,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>遊戲大綱</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,10 +231,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>銷售相關</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -233,10 +244,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>劇情</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -258,7 +271,7 @@
       </rPr>
       <t>zzz…</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -266,10 +279,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>畫面風格和範例圖</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -349,7 +364,7 @@
       </rPr>
       <t>…</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -362,7 +377,7 @@
       </rPr>
       <t>史萊姆侵略人類的劇情來引出輕度的背景代入感，關卡內的玩法吃東西特性和合作通關，關卡外的玩法則是利用關卡內取得的物品來做經營養成。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -370,10 +385,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>操作方式</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,7 +571,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -562,10 +579,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>主要玩法：吃</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -573,10 +592,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>專案狀態：</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -620,7 +641,7 @@
       </rPr>
       <t>…</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -724,7 +745,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -732,10 +753,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>海洋汙染</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -743,10 +766,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
       </rPr>
       <t>核汙染</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -788,7 +813,7 @@
       </rPr>
       <t>= =…</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -881,7 +906,7 @@
       <t xml:space="preserve">探測、開採及海底工程時，因處置不當、設備不周、意外致使油、天然氣、泥漿外洩等
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -914,31 +939,158 @@
       <t>受影響的生物會提升癌症和遺傳變異的機率
 核子戰爭 - 大規模碳化、飢荒、極寒、高達一半的全球臭氧損失等</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>差不多噁心放些比較好接受的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>畜牧業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能量來源、備用器官來源、食物來源、進化實驗、娛樂來源、洩慾來源、表本收集、奴隸來源、戰爭用途、寵物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玩家可感受到嘲諷且愚昧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大而浮誇的姿態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>懶胖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歐巴桑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待機動作</t>
+  </si>
+  <si>
+    <t>發現史萊姆</t>
+  </si>
+  <si>
+    <t>交戰</t>
+  </si>
+  <si>
+    <t>被吃掉</t>
+  </si>
+  <si>
+    <t>擊敗史萊姆</t>
+  </si>
+  <si>
+    <t>敘述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>示意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 屁股相當大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 葫蘆竹身材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 肚子非常突兀的大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 肥宅貌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 打呼睡覺，肚子起伏大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 站立雞雞聒聒一直聊天，肢體動作浮誇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 偶而打旁邊小孩一巴掌，一直笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 大吃一驚，向史萊姆反方向大跳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 大吃一驚，向史萊姆反方向小跳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 逃竄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 不逃竄，拼命罵史萊姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 嘴巴繼續罵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 難過、啜泣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 雙手快速揮動、興奮一生結束了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 勝利，驕傲，狂妄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -979,6 +1131,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1020,8 +1174,66 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,8 +1258,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1172,202 +1413,780 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="30" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="40" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="43" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="44" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="37" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="45" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="35" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="46" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="40% - 輔色5" xfId="4" builtinId="47"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="標題 1" xfId="1" builtinId="16"/>
+    <cellStyle name="標題 3" xfId="2" builtinId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1406,7 +2225,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5CD36B-005E-4CB3-885F-0C95D801FF54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB5CD36B-005E-4CB3-885F-0C95D801FF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +2280,7 @@
         <xdr:cNvPr id="2" name="圖片 1" descr="相關圖片">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB08B0D-1A62-4106-9725-147E8DA49FF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCB08B0D-1A62-4106-9725-147E8DA49FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +2341,7 @@
         <xdr:cNvPr id="4" name="圖片 3" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347E5228-2707-4EEA-A577-E884422ED2B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{347E5228-2707-4EEA-A577-E884422ED2B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +2402,7 @@
         <xdr:cNvPr id="5" name="圖片 4" descr="「海洋 廢棄物」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416CA8B9-B96F-4EA9-8A88-8BBD24D9B129}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{416CA8B9-B96F-4EA9-8A88-8BBD24D9B129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +2463,7 @@
         <xdr:cNvPr id="6" name="圖片 5" descr="「海洋 垃圾」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A9363F-7A8A-4177-B874-AD29F652D74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61A9363F-7A8A-4177-B874-AD29F652D74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +2524,7 @@
         <xdr:cNvPr id="7" name="圖片 6" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCDFD57-E9F0-4583-B32E-7A7A8F0A9F3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCDFD57-E9F0-4583-B32E-7A7A8F0A9F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +2585,7 @@
         <xdr:cNvPr id="11" name="圖片 10" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5B48E8-6D50-4EF9-B9CA-182A158815F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5B48E8-6D50-4EF9-B9CA-182A158815F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +2646,7 @@
         <xdr:cNvPr id="12" name="圖片 11" descr="http://www.gvm.com.tw/images/blog/1134208.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE5A22E-6D22-416A-B995-E9A68BC1432F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CE5A22E-6D22-416A-B995-E9A68BC1432F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +2707,7 @@
         <xdr:cNvPr id="13" name="圖片 12" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C859D5A-E1F2-4C33-ABAB-D2EFEFDA5C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C859D5A-E1F2-4C33-ABAB-D2EFEFDA5C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1949,7 +2768,7 @@
         <xdr:cNvPr id="23" name="圖片 22" descr="「輻射 汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A01E9E3-B94F-4980-9DF3-1A15E7F81F14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A01E9E3-B94F-4980-9DF3-1A15E7F81F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2829,7 @@
         <xdr:cNvPr id="24" name="圖片 23" descr="「輻射 汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFE56BE-8399-4976-A501-3458EE229DC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DFE56BE-8399-4976-A501-3458EE229DC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2890,7 @@
         <xdr:cNvPr id="25" name="圖片 24" descr="「核廢料」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A708ABE6-8698-4609-9AAC-BC22026C8FC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A708ABE6-8698-4609-9AAC-BC22026C8FC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2951,7 @@
         <xdr:cNvPr id="34" name="圖片 33" descr="「核廢料」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A22440-BA59-4326-ACC6-6E2D1B997DCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4A22440-BA59-4326-ACC6-6E2D1B997DCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +3012,7 @@
         <xdr:cNvPr id="35" name="圖片 34" descr="相關圖片">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCEA397-7030-49F6-AE88-E476F694C893}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABCEA397-7030-49F6-AE88-E476F694C893}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +3073,7 @@
         <xdr:cNvPr id="36" name="圖片 35" descr="「核爆」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B61DA7-97F1-4A23-AA3A-7976739ABE7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94B61DA7-97F1-4A23-AA3A-7976739ABE7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +3134,7 @@
         <xdr:cNvPr id="37" name="圖片 36" descr="「駭客任務 人類」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5851F926-071A-489F-851C-FDC00B1B09E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5851F926-071A-489F-851C-FDC00B1B09E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +3195,7 @@
         <xdr:cNvPr id="44" name="圖片 43" descr="「約定的夢幻島」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B36526-533C-4A0E-B7B4-1D788321CD5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73B36526-533C-4A0E-B7B4-1D788321CD5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +3256,7 @@
         <xdr:cNvPr id="45" name="圖片 44" descr="「絕地再生」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DF938F-BFD1-4B56-9516-C6AD8AADAAE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41DF938F-BFD1-4B56-9516-C6AD8AADAAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +3317,7 @@
         <xdr:cNvPr id="46" name="圖片 45" descr="「奴隸」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1841FED5-FAF6-496D-B730-DB4B633669AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1841FED5-FAF6-496D-B730-DB4B633669AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,6 +3356,143 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>737257</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13087350" y="2019300"/>
+          <a:ext cx="432457" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>746782</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="2724150"/>
+          <a:ext cx="432457" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19916775" y="2647950"/>
+          <a:ext cx="952500" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2587,7 +3543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2622,7 +3578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2799,18 +3755,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:N19"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4409,11 +5365,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A71:N71"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A84:N84"/>
     <mergeCell ref="A85:N96"/>
     <mergeCell ref="A72:N83"/>
     <mergeCell ref="A1:N1"/>
@@ -4429,8 +5380,13 @@
     <mergeCell ref="A20:N20"/>
     <mergeCell ref="A21:N38"/>
     <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A71:N71"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A84:N84"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4438,10 +5394,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1369E83E-8290-4C1F-A84D-DB67EE1D58F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="AD50" sqref="AD50"/>
     </sheetView>
   </sheetViews>
@@ -4483,7 +5439,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
       <c r="AB1" s="7"/>
-      <c r="AC1" s="63" t="s">
+      <c r="AC1" s="46" t="s">
         <v>25</v>
       </c>
       <c r="AD1" s="6"/>
@@ -4533,7 +5489,7 @@
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
       <c r="AB2" s="29"/>
-      <c r="AC2" s="46" t="s">
+      <c r="AC2" s="47" t="s">
         <v>26</v>
       </c>
       <c r="AD2" s="28"/>
@@ -4727,1812 +5683,1812 @@
       <c r="AP6" s="32"/>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="56" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="62" t="s">
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
     </row>
     <row r="8" spans="1:42" ht="15" customHeight="1">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="59"/>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="59"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
     </row>
     <row r="15" spans="1:42" ht="15" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="59"/>
-      <c r="AP15" s="59"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="60"/>
+      <c r="AN15" s="60"/>
+      <c r="AO15" s="60"/>
+      <c r="AP15" s="60"/>
     </row>
     <row r="16" spans="1:42" ht="15" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="59"/>
-      <c r="AK16" s="59"/>
-      <c r="AL16" s="59"/>
-      <c r="AM16" s="59"/>
-      <c r="AN16" s="59"/>
-      <c r="AO16" s="59"/>
-      <c r="AP16" s="59"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="60"/>
+      <c r="Y16" s="60"/>
+      <c r="Z16" s="60"/>
+      <c r="AA16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="60"/>
+      <c r="AE16" s="60"/>
+      <c r="AF16" s="60"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="60"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="60"/>
+      <c r="AK16" s="60"/>
+      <c r="AL16" s="60"/>
+      <c r="AM16" s="60"/>
+      <c r="AN16" s="60"/>
+      <c r="AO16" s="60"/>
+      <c r="AP16" s="60"/>
     </row>
     <row r="17" spans="1:42" ht="15" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="59"/>
-      <c r="AN17" s="59"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="60"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
     </row>
     <row r="18" spans="1:42" ht="15" customHeight="1">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
     </row>
     <row r="19" spans="1:42" ht="15" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="60"/>
+      <c r="AE19" s="60"/>
+      <c r="AF19" s="60"/>
+      <c r="AG19" s="60"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="60"/>
+      <c r="AK19" s="60"/>
+      <c r="AL19" s="60"/>
+      <c r="AM19" s="60"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="60"/>
+      <c r="AP19" s="60"/>
     </row>
     <row r="20" spans="1:42" ht="15" customHeight="1">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="60"/>
+      <c r="AE20" s="60"/>
+      <c r="AF20" s="60"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="60"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="60"/>
+      <c r="AK20" s="60"/>
+      <c r="AL20" s="60"/>
+      <c r="AM20" s="60"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="60"/>
+      <c r="AP20" s="60"/>
     </row>
     <row r="21" spans="1:42" ht="15" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="60"/>
+      <c r="Y21" s="60"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="60"/>
+      <c r="AB21" s="60"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="60"/>
+      <c r="AE21" s="60"/>
+      <c r="AF21" s="60"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="60"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="60"/>
+      <c r="AL21" s="60"/>
+      <c r="AM21" s="60"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="60"/>
+      <c r="AP21" s="60"/>
     </row>
     <row r="22" spans="1:42" ht="15" customHeight="1">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="60"/>
+      <c r="AE22" s="60"/>
+      <c r="AF22" s="60"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="60"/>
+      <c r="AM22" s="60"/>
+      <c r="AN22" s="60"/>
+      <c r="AO22" s="60"/>
+      <c r="AP22" s="60"/>
     </row>
     <row r="23" spans="1:42" ht="15" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
+      <c r="V23" s="60"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="60"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="60"/>
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="60"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="60"/>
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="60"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="60"/>
+      <c r="AJ23" s="60"/>
+      <c r="AK23" s="60"/>
+      <c r="AL23" s="60"/>
+      <c r="AM23" s="60"/>
+      <c r="AN23" s="60"/>
+      <c r="AO23" s="60"/>
+      <c r="AP23" s="60"/>
     </row>
     <row r="24" spans="1:42" ht="15" customHeight="1">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="58"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="60"/>
+      <c r="AL24" s="60"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
     </row>
     <row r="25" spans="1:42" ht="15" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="60"/>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="60"/>
+      <c r="Z25" s="60"/>
+      <c r="AA25" s="60"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="60"/>
+      <c r="AE25" s="60"/>
+      <c r="AF25" s="60"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="60"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="60"/>
+      <c r="AP25" s="60"/>
     </row>
     <row r="26" spans="1:42" ht="15" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="60"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="60"/>
     </row>
     <row r="27" spans="1:42" ht="15" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="60"/>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="60"/>
+      <c r="AP27" s="60"/>
     </row>
     <row r="28" spans="1:42" ht="15" customHeight="1">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="60"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="60"/>
+      <c r="AI28" s="60"/>
+      <c r="AJ28" s="60"/>
+      <c r="AK28" s="60"/>
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="60"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="60"/>
     </row>
     <row r="29" spans="1:42" ht="15" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="59"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
+      <c r="X29" s="60"/>
+      <c r="Y29" s="60"/>
+      <c r="Z29" s="60"/>
+      <c r="AA29" s="60"/>
+      <c r="AB29" s="60"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="60"/>
+      <c r="AE29" s="60"/>
+      <c r="AF29" s="60"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="60"/>
+      <c r="AI29" s="60"/>
+      <c r="AJ29" s="60"/>
+      <c r="AK29" s="60"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="60"/>
+      <c r="AN29" s="60"/>
+      <c r="AO29" s="60"/>
+      <c r="AP29" s="60"/>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="59"/>
-      <c r="AK30" s="59"/>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="59"/>
-      <c r="AN30" s="59"/>
-      <c r="AO30" s="59"/>
-      <c r="AP30" s="59"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="60"/>
     </row>
     <row r="31" spans="1:42" ht="15" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="60"/>
+      <c r="AA31" s="60"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="60"/>
+      <c r="AE31" s="60"/>
+      <c r="AF31" s="60"/>
+      <c r="AG31" s="60"/>
+      <c r="AH31" s="60"/>
+      <c r="AI31" s="60"/>
+      <c r="AJ31" s="60"/>
+      <c r="AK31" s="60"/>
+      <c r="AL31" s="60"/>
+      <c r="AM31" s="60"/>
+      <c r="AN31" s="60"/>
+      <c r="AO31" s="60"/>
+      <c r="AP31" s="60"/>
     </row>
     <row r="32" spans="1:42" ht="15" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="60"/>
+      <c r="AG32" s="60"/>
+      <c r="AH32" s="60"/>
+      <c r="AI32" s="60"/>
+      <c r="AJ32" s="60"/>
+      <c r="AK32" s="60"/>
+      <c r="AL32" s="60"/>
+      <c r="AM32" s="60"/>
+      <c r="AN32" s="60"/>
+      <c r="AO32" s="60"/>
+      <c r="AP32" s="60"/>
     </row>
     <row r="33" spans="1:42" ht="15" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="60"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="60"/>
+      <c r="AE33" s="60"/>
+      <c r="AF33" s="60"/>
+      <c r="AG33" s="60"/>
+      <c r="AH33" s="60"/>
+      <c r="AI33" s="60"/>
+      <c r="AJ33" s="60"/>
+      <c r="AK33" s="60"/>
+      <c r="AL33" s="60"/>
+      <c r="AM33" s="60"/>
+      <c r="AN33" s="60"/>
+      <c r="AO33" s="60"/>
+      <c r="AP33" s="60"/>
     </row>
     <row r="34" spans="1:42" ht="15" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="60"/>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="60"/>
     </row>
     <row r="35" spans="1:42" ht="15" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="59"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="59"/>
-      <c r="AK35" s="59"/>
-      <c r="AL35" s="59"/>
-      <c r="AM35" s="59"/>
-      <c r="AN35" s="59"/>
-      <c r="AO35" s="59"/>
-      <c r="AP35" s="59"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="60"/>
+      <c r="AB35" s="60"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="60"/>
+      <c r="AE35" s="60"/>
+      <c r="AF35" s="60"/>
+      <c r="AG35" s="60"/>
+      <c r="AH35" s="60"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
     </row>
     <row r="36" spans="1:42" ht="15" customHeight="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="58"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="59"/>
-      <c r="AN36" s="59"/>
-      <c r="AO36" s="59"/>
-      <c r="AP36" s="59"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="60"/>
+      <c r="AE36" s="60"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="60"/>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="60"/>
     </row>
     <row r="37" spans="1:42" ht="15" customHeight="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="59"/>
-      <c r="AO37" s="59"/>
-      <c r="AP37" s="59"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="60"/>
+      <c r="AM37" s="60"/>
+      <c r="AN37" s="60"/>
+      <c r="AO37" s="60"/>
+      <c r="AP37" s="60"/>
     </row>
     <row r="38" spans="1:42" ht="15" customHeight="1">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="59"/>
-      <c r="AN38" s="59"/>
-      <c r="AO38" s="59"/>
-      <c r="AP38" s="59"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="60"/>
+      <c r="AF38" s="60"/>
+      <c r="AG38" s="60"/>
+      <c r="AH38" s="60"/>
+      <c r="AI38" s="60"/>
+      <c r="AJ38" s="60"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="60"/>
     </row>
     <row r="39" spans="1:42" ht="15" customHeight="1">
-      <c r="A39" s="50"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="59"/>
-      <c r="AO39" s="59"/>
-      <c r="AP39" s="59"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="60"/>
+      <c r="AI39" s="60"/>
+      <c r="AJ39" s="60"/>
+      <c r="AK39" s="60"/>
+      <c r="AL39" s="60"/>
+      <c r="AM39" s="60"/>
+      <c r="AN39" s="60"/>
+      <c r="AO39" s="60"/>
+      <c r="AP39" s="60"/>
     </row>
     <row r="40" spans="1:42" ht="15" customHeight="1">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="58"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="59"/>
-      <c r="AO40" s="59"/>
-      <c r="AP40" s="59"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="60"/>
+      <c r="AB40" s="60"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="60"/>
+      <c r="AE40" s="60"/>
+      <c r="AF40" s="60"/>
+      <c r="AG40" s="60"/>
+      <c r="AH40" s="60"/>
+      <c r="AI40" s="60"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="60"/>
+      <c r="AM40" s="60"/>
+      <c r="AN40" s="60"/>
+      <c r="AO40" s="60"/>
+      <c r="AP40" s="60"/>
     </row>
     <row r="41" spans="1:42" ht="15" customHeight="1">
-      <c r="A41" s="50"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="58"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="59"/>
-      <c r="AO41" s="59"/>
-      <c r="AP41" s="59"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="60"/>
+      <c r="AI41" s="60"/>
+      <c r="AJ41" s="60"/>
+      <c r="AK41" s="60"/>
+      <c r="AL41" s="60"/>
+      <c r="AM41" s="60"/>
+      <c r="AN41" s="60"/>
+      <c r="AO41" s="60"/>
+      <c r="AP41" s="60"/>
     </row>
     <row r="42" spans="1:42" ht="15" customHeight="1">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="59"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="59"/>
-      <c r="AE42" s="59"/>
-      <c r="AF42" s="59"/>
-      <c r="AG42" s="59"/>
-      <c r="AH42" s="59"/>
-      <c r="AI42" s="59"/>
-      <c r="AJ42" s="59"/>
-      <c r="AK42" s="59"/>
-      <c r="AL42" s="59"/>
-      <c r="AM42" s="59"/>
-      <c r="AN42" s="59"/>
-      <c r="AO42" s="59"/>
-      <c r="AP42" s="59"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+      <c r="AA42" s="60"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="60"/>
+      <c r="AJ42" s="60"/>
+      <c r="AK42" s="60"/>
+      <c r="AL42" s="60"/>
+      <c r="AM42" s="60"/>
+      <c r="AN42" s="60"/>
+      <c r="AO42" s="60"/>
+      <c r="AP42" s="60"/>
     </row>
     <row r="43" spans="1:42">
-      <c r="A43" s="50"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="59"/>
-      <c r="AC43" s="58"/>
-      <c r="AD43" s="59"/>
-      <c r="AE43" s="59"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="59"/>
-      <c r="AH43" s="59"/>
-      <c r="AI43" s="59"/>
-      <c r="AJ43" s="59"/>
-      <c r="AK43" s="59"/>
-      <c r="AL43" s="59"/>
-      <c r="AM43" s="59"/>
-      <c r="AN43" s="59"/>
-      <c r="AO43" s="59"/>
-      <c r="AP43" s="59"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="60"/>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="60"/>
+      <c r="AG43" s="60"/>
+      <c r="AH43" s="60"/>
+      <c r="AI43" s="60"/>
+      <c r="AJ43" s="60"/>
+      <c r="AK43" s="60"/>
+      <c r="AL43" s="60"/>
+      <c r="AM43" s="60"/>
+      <c r="AN43" s="60"/>
+      <c r="AO43" s="60"/>
+      <c r="AP43" s="60"/>
     </row>
     <row r="44" spans="1:42">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="59"/>
-      <c r="AC44" s="58"/>
-      <c r="AD44" s="59"/>
-      <c r="AE44" s="59"/>
-      <c r="AF44" s="59"/>
-      <c r="AG44" s="59"/>
-      <c r="AH44" s="59"/>
-      <c r="AI44" s="59"/>
-      <c r="AJ44" s="59"/>
-      <c r="AK44" s="59"/>
-      <c r="AL44" s="59"/>
-      <c r="AM44" s="59"/>
-      <c r="AN44" s="59"/>
-      <c r="AO44" s="59"/>
-      <c r="AP44" s="59"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="60"/>
+      <c r="AI44" s="60"/>
+      <c r="AJ44" s="60"/>
+      <c r="AK44" s="60"/>
+      <c r="AL44" s="60"/>
+      <c r="AM44" s="60"/>
+      <c r="AN44" s="60"/>
+      <c r="AO44" s="60"/>
+      <c r="AP44" s="60"/>
     </row>
     <row r="45" spans="1:42">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="58"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="59"/>
-      <c r="AI45" s="59"/>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="59"/>
-      <c r="AL45" s="59"/>
-      <c r="AM45" s="59"/>
-      <c r="AN45" s="59"/>
-      <c r="AO45" s="59"/>
-      <c r="AP45" s="59"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="53"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="60"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="60"/>
+      <c r="AE45" s="60"/>
+      <c r="AF45" s="60"/>
+      <c r="AG45" s="60"/>
+      <c r="AH45" s="60"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="60"/>
+      <c r="AK45" s="60"/>
+      <c r="AL45" s="60"/>
+      <c r="AM45" s="60"/>
+      <c r="AN45" s="60"/>
+      <c r="AO45" s="60"/>
+      <c r="AP45" s="60"/>
     </row>
     <row r="46" spans="1:42">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="59"/>
-      <c r="AF46" s="59"/>
-      <c r="AG46" s="59"/>
-      <c r="AH46" s="59"/>
-      <c r="AI46" s="59"/>
-      <c r="AJ46" s="59"/>
-      <c r="AK46" s="59"/>
-      <c r="AL46" s="59"/>
-      <c r="AM46" s="59"/>
-      <c r="AN46" s="59"/>
-      <c r="AO46" s="59"/>
-      <c r="AP46" s="59"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
+      <c r="AA46" s="60"/>
+      <c r="AB46" s="60"/>
+      <c r="AC46" s="59"/>
+      <c r="AD46" s="60"/>
+      <c r="AE46" s="60"/>
+      <c r="AF46" s="60"/>
+      <c r="AG46" s="60"/>
+      <c r="AH46" s="60"/>
+      <c r="AI46" s="60"/>
+      <c r="AJ46" s="60"/>
+      <c r="AK46" s="60"/>
+      <c r="AL46" s="60"/>
+      <c r="AM46" s="60"/>
+      <c r="AN46" s="60"/>
+      <c r="AO46" s="60"/>
+      <c r="AP46" s="60"/>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="60"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
-      <c r="AA47" s="61"/>
-      <c r="AB47" s="61"/>
-      <c r="AC47" s="60"/>
-      <c r="AD47" s="61"/>
-      <c r="AE47" s="61"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="61"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
-      <c r="AJ47" s="61"/>
-      <c r="AK47" s="61"/>
-      <c r="AL47" s="61"/>
-      <c r="AM47" s="61"/>
-      <c r="AN47" s="61"/>
-      <c r="AO47" s="61"/>
-      <c r="AP47" s="61"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="62"/>
+      <c r="V47" s="62"/>
+      <c r="W47" s="62"/>
+      <c r="X47" s="62"/>
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="62"/>
+      <c r="AC47" s="61"/>
+      <c r="AD47" s="62"/>
+      <c r="AE47" s="62"/>
+      <c r="AF47" s="62"/>
+      <c r="AG47" s="62"/>
+      <c r="AH47" s="62"/>
+      <c r="AI47" s="62"/>
+      <c r="AJ47" s="62"/>
+      <c r="AK47" s="62"/>
+      <c r="AL47" s="62"/>
+      <c r="AM47" s="62"/>
+      <c r="AN47" s="62"/>
+      <c r="AO47" s="62"/>
+      <c r="AP47" s="62"/>
     </row>
     <row r="49" spans="14:30" ht="15.75">
       <c r="N49"/>
@@ -6569,9 +7525,755 @@
     <mergeCell ref="O2:AB6"/>
     <mergeCell ref="O1:AB1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3" style="120" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="1" style="65" customWidth="1"/>
+    <col min="9" max="9" width="47" style="64" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="64" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="64" customWidth="1"/>
+    <col min="13" max="13" width="29" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="64" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="64" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" style="64" customWidth="1"/>
+    <col min="19" max="23" width="9.140625" style="120"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" s="120" customFormat="1">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+    </row>
+    <row r="2" spans="2:19" s="120" customFormat="1" ht="21" thickBot="1">
+      <c r="B2" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="125"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+    </row>
+    <row r="3" spans="2:19" s="120" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
+      <c r="B3" s="126"/>
+      <c r="C3" s="125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+    </row>
+    <row r="4" spans="2:19" s="120" customFormat="1">
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+    </row>
+    <row r="5" spans="2:19" s="120" customFormat="1" ht="16.5" thickBot="1">
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+    </row>
+    <row r="6" spans="2:19" ht="27" thickTop="1" thickBot="1">
+      <c r="B6" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="94"/>
+    </row>
+    <row r="7" spans="2:19" ht="21.75" thickTop="1" thickBot="1">
+      <c r="B7" s="132"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="105"/>
+      <c r="I7" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="119"/>
+    </row>
+    <row r="8" spans="2:19" ht="18" thickTop="1" thickBot="1">
+      <c r="B8" s="133"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="21.75" thickTop="1">
+      <c r="B9" s="133"/>
+      <c r="C9" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="70"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="114"/>
+      <c r="R9" s="116"/>
+    </row>
+    <row r="10" spans="2:19" ht="16.5" customHeight="1">
+      <c r="B10" s="133"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="87"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="82"/>
+      <c r="K10" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="82"/>
+      <c r="M10" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="111"/>
+      <c r="O10" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="116"/>
+    </row>
+    <row r="11" spans="2:19" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B11" s="133"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="88"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="117"/>
+    </row>
+    <row r="12" spans="2:19" ht="17.25" thickTop="1">
+      <c r="B12" s="133"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="77"/>
+      <c r="F12" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="87"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="82"/>
+      <c r="K12" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="82"/>
+      <c r="M12" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="111"/>
+      <c r="O12" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="116"/>
+    </row>
+    <row r="13" spans="2:19" ht="16.5">
+      <c r="B13" s="133"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="87"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="82"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="116"/>
+    </row>
+    <row r="14" spans="2:19" ht="16.5">
+      <c r="B14" s="133"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="121"/>
+    </row>
+    <row r="15" spans="2:19" ht="16.5">
+      <c r="B15" s="133"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="116"/>
+    </row>
+    <row r="16" spans="2:19" ht="16.5">
+      <c r="B16" s="133"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="116"/>
+    </row>
+    <row r="17" spans="2:18" ht="16.5">
+      <c r="B17" s="133"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="116"/>
+    </row>
+    <row r="18" spans="2:18" ht="17.25" thickBot="1">
+      <c r="B18" s="133"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="118"/>
+    </row>
+    <row r="19" spans="2:18" s="120" customFormat="1" ht="12.75" customHeight="1">
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+    </row>
+    <row r="20" spans="2:18" s="120" customFormat="1">
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+    </row>
+    <row r="21" spans="2:18" s="120" customFormat="1">
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="123"/>
+    </row>
+    <row r="22" spans="2:18" s="120" customFormat="1">
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+    </row>
+    <row r="23" spans="2:18" s="120" customFormat="1">
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+    </row>
+    <row r="24" spans="2:18" s="120" customFormat="1">
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+    </row>
+    <row r="25" spans="2:18" s="120" customFormat="1">
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+    </row>
+    <row r="26" spans="2:18" s="120" customFormat="1">
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+    </row>
+    <row r="27" spans="2:18" s="120" customFormat="1">
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+    </row>
+    <row r="28" spans="2:18" s="120" customFormat="1">
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+    </row>
+    <row r="29" spans="2:18" s="120" customFormat="1">
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+    </row>
+    <row r="30" spans="2:18" s="120" customFormat="1">
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+    </row>
+    <row r="31" spans="2:18" s="120" customFormat="1">
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+    </row>
+    <row r="32" spans="2:18" s="120" customFormat="1">
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+    </row>
+    <row r="33" spans="6:18" s="120" customFormat="1">
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+    </row>
+    <row r="34" spans="6:18" s="120" customFormat="1">
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+    </row>
+    <row r="35" spans="6:18" s="120" customFormat="1">
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+    </row>
+    <row r="36" spans="6:18" s="120" customFormat="1">
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+    </row>
+    <row r="37" spans="6:18" s="120" customFormat="1">
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/1.GDD/開發文件.xlsx
+++ b/1.GDD/開發文件.xlsx
@@ -10,7 +10,7 @@
     <sheet name="標準文件" sheetId="1" r:id="rId1"/>
     <sheet name="參考資料" sheetId="2" r:id="rId2"/>
     <sheet name="人類開圖動作V0202" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
+    <sheet name="推擠logic" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -8578,7 +8578,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/1.GDD/開發文件.xlsx
+++ b/1.GDD/開發文件.xlsx
@@ -1160,19 +1160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B體型 &gt; A 則 A的X軸 + 5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B體型 &lt; A 則 A的X軸 + 2
-B的X軸 -1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B體型 &gt; A 則 A的X軸 + 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>If B的速度達到&gt;=終速的50%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1181,12 +1168,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B體型 &lt; A 則 A的X軸 + 1
-B的X軸 +0</t>
+    <t>A是被撞擊方、B是撞擊方</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>A是被撞擊方、B是撞擊方</t>
+    <t>B體型 &gt; A 則 A彈最遠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B體型 &lt; A 則 A彈第三遠
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B體型 &gt; A 則 A彈第二遠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B體型 &lt; A 則 A彈最近
+B的X軸 +0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2236,229 +2236,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="47" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="48" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="49" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="50" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="51" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2468,6 +2249,225 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="54" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="24" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="48" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="50" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="55" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2520,7 +2520,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB5CD36B-005E-4CB3-885F-0C95D801FF54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5CD36B-005E-4CB3-885F-0C95D801FF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2575,7 @@
         <xdr:cNvPr id="2" name="圖片 1" descr="相關圖片">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FCB08B0D-1A62-4106-9725-147E8DA49FF9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB08B0D-1A62-4106-9725-147E8DA49FF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2636,7 @@
         <xdr:cNvPr id="4" name="圖片 3" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{347E5228-2707-4EEA-A577-E884422ED2B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347E5228-2707-4EEA-A577-E884422ED2B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2697,7 @@
         <xdr:cNvPr id="5" name="圖片 4" descr="「海洋 廢棄物」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{416CA8B9-B96F-4EA9-8A88-8BBD24D9B129}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416CA8B9-B96F-4EA9-8A88-8BBD24D9B129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2758,7 @@
         <xdr:cNvPr id="6" name="圖片 5" descr="「海洋 垃圾」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{61A9363F-7A8A-4177-B874-AD29F652D74B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A9363F-7A8A-4177-B874-AD29F652D74B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2819,7 @@
         <xdr:cNvPr id="7" name="圖片 6" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EBCDFD57-E9F0-4583-B32E-7A7A8F0A9F3D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBCDFD57-E9F0-4583-B32E-7A7A8F0A9F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,7 +2880,7 @@
         <xdr:cNvPr id="11" name="圖片 10" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB5B48E8-6D50-4EF9-B9CA-182A158815F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5B48E8-6D50-4EF9-B9CA-182A158815F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2941,7 @@
         <xdr:cNvPr id="12" name="圖片 11" descr="http://www.gvm.com.tw/images/blog/1134208.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2CE5A22E-6D22-416A-B995-E9A68BC1432F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CE5A22E-6D22-416A-B995-E9A68BC1432F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3002,7 @@
         <xdr:cNvPr id="13" name="圖片 12" descr="「海洋汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C859D5A-E1F2-4C33-ABAB-D2EFEFDA5C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C859D5A-E1F2-4C33-ABAB-D2EFEFDA5C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3063,7 @@
         <xdr:cNvPr id="23" name="圖片 22" descr="「輻射 汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A01E9E3-B94F-4980-9DF3-1A15E7F81F14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A01E9E3-B94F-4980-9DF3-1A15E7F81F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3124,7 @@
         <xdr:cNvPr id="24" name="圖片 23" descr="「輻射 汙染」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DFE56BE-8399-4976-A501-3458EE229DC5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFE56BE-8399-4976-A501-3458EE229DC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3185,7 @@
         <xdr:cNvPr id="25" name="圖片 24" descr="「核廢料」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A708ABE6-8698-4609-9AAC-BC22026C8FC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A708ABE6-8698-4609-9AAC-BC22026C8FC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3246,7 +3246,7 @@
         <xdr:cNvPr id="34" name="圖片 33" descr="「核廢料」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4A22440-BA59-4326-ACC6-6E2D1B997DCA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A22440-BA59-4326-ACC6-6E2D1B997DCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3307,7 @@
         <xdr:cNvPr id="35" name="圖片 34" descr="相關圖片">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABCEA397-7030-49F6-AE88-E476F694C893}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCEA397-7030-49F6-AE88-E476F694C893}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,7 +3368,7 @@
         <xdr:cNvPr id="36" name="圖片 35" descr="「核爆」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94B61DA7-97F1-4A23-AA3A-7976739ABE7D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B61DA7-97F1-4A23-AA3A-7976739ABE7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3429,7 @@
         <xdr:cNvPr id="37" name="圖片 36" descr="「駭客任務 人類」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5851F926-071A-489F-851C-FDC00B1B09E2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5851F926-071A-489F-851C-FDC00B1B09E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +3490,7 @@
         <xdr:cNvPr id="44" name="圖片 43" descr="「約定的夢幻島」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73B36526-533C-4A0E-B7B4-1D788321CD5E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B36526-533C-4A0E-B7B4-1D788321CD5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3551,7 +3551,7 @@
         <xdr:cNvPr id="45" name="圖片 44" descr="「絕地再生」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41DF938F-BFD1-4B56-9516-C6AD8AADAAE9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DF938F-BFD1-4B56-9516-C6AD8AADAAE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3612,7 +3612,7 @@
         <xdr:cNvPr id="46" name="圖片 45" descr="「奴隸」的圖片搜尋結果">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1841FED5-FAF6-496D-B730-DB4B633669AF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1841FED5-FAF6-496D-B730-DB4B633669AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4050,7 +4050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4070,1596 +4070,1602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="78"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="79"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="81"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="78"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="79"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="81"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="81"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="78"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="81"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="78"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="81"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="81"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="78"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="79"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="81"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="78"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="78"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="81"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="78"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="81"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="78"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="81"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="78"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="81"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="78"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="84"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="81"/>
     </row>
     <row r="20" spans="1:17" ht="15.75">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="72"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="94"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="100"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="100"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="100"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="100"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="97"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="98"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="100"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="100"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="97"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="100"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="100"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="97"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="100"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="97"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="100"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="97"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="99"/>
-      <c r="N32" s="100"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="97"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="98"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="100"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="98"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="100"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="98"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="100"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="97"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="98"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="100"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="97"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="100"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="97"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="103"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="100"/>
     </row>
     <row r="39" spans="1:17" ht="15.75">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="65"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="72"/>
       <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-      <c r="N40" s="87"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="84"/>
       <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="91"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="93"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="90"/>
       <c r="Q41" s="4"/>
     </row>
     <row r="42" spans="1:17" ht="15.75">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="65"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="72"/>
       <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="78"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="75"/>
       <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="84"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="81"/>
       <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" ht="15.75">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="65"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="72"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="76" t="s">
+      <c r="A46" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="87"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="84"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="88"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="90"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="86"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="87"/>
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="91"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="93"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="90"/>
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17" ht="15.75">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="65"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="72"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="76" t="s">
+      <c r="A50" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="87"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="84"/>
       <c r="Q50" s="2"/>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="88"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="90"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="87"/>
       <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="88"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="90"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="87"/>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="91"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="93"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:17" ht="15.75">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="65"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="71"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="72"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="87"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="84"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="88"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="90"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="86"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="86"/>
+      <c r="J56" s="86"/>
+      <c r="K56" s="86"/>
+      <c r="L56" s="86"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="87"/>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="91"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="92"/>
-      <c r="N57" s="93"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="90"/>
     </row>
     <row r="58" spans="1:17" ht="15.75">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="64"/>
-      <c r="N58" s="65"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="72"/>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="87"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="84"/>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1">
-      <c r="A60" s="88"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="90"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="86"/>
+      <c r="G60" s="86"/>
+      <c r="H60" s="86"/>
+      <c r="I60" s="86"/>
+      <c r="J60" s="86"/>
+      <c r="K60" s="86"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="87"/>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1">
-      <c r="A61" s="88"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="90"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="86"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="87"/>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1">
-      <c r="A62" s="88"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="89"/>
-      <c r="N62" s="90"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="86"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="87"/>
     </row>
     <row r="63" spans="1:17" ht="15" customHeight="1">
-      <c r="A63" s="88"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
-      <c r="M63" s="89"/>
-      <c r="N63" s="90"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
+      <c r="E63" s="86"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="86"/>
+      <c r="L63" s="86"/>
+      <c r="M63" s="86"/>
+      <c r="N63" s="87"/>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1">
-      <c r="A64" s="88"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="90"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="86"/>
+      <c r="K64" s="86"/>
+      <c r="L64" s="86"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="87"/>
     </row>
     <row r="65" spans="1:14" ht="15" customHeight="1">
-      <c r="A65" s="88"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="90"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
+      <c r="E65" s="86"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="86"/>
+      <c r="K65" s="86"/>
+      <c r="L65" s="86"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="87"/>
     </row>
     <row r="66" spans="1:14" ht="15" customHeight="1">
-      <c r="A66" s="88"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="89"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="89"/>
-      <c r="N66" s="90"/>
+      <c r="A66" s="85"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="86"/>
+      <c r="L66" s="86"/>
+      <c r="M66" s="86"/>
+      <c r="N66" s="87"/>
     </row>
     <row r="67" spans="1:14" ht="15" customHeight="1">
-      <c r="A67" s="88"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="90"/>
+      <c r="A67" s="85"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="86"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="87"/>
     </row>
     <row r="68" spans="1:14" ht="15" customHeight="1">
-      <c r="A68" s="88"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="89"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="89"/>
-      <c r="M68" s="89"/>
-      <c r="N68" s="90"/>
+      <c r="A68" s="85"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="87"/>
     </row>
     <row r="69" spans="1:14" ht="15" customHeight="1">
-      <c r="A69" s="88"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="90"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="86"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="86"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="87"/>
     </row>
     <row r="70" spans="1:14" ht="15" customHeight="1">
-      <c r="A70" s="91"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="93"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="90"/>
     </row>
     <row r="71" spans="1:14" ht="15.75">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-      <c r="I71" s="64"/>
-      <c r="J71" s="64"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="64"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="65"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
+      <c r="N71" s="72"/>
     </row>
     <row r="72" spans="1:14">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="67"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="67"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="68"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="102"/>
+      <c r="F72" s="102"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="102"/>
+      <c r="I72" s="102"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102"/>
+      <c r="M72" s="102"/>
+      <c r="N72" s="103"/>
     </row>
     <row r="73" spans="1:14">
-      <c r="A73" s="69"/>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
-      <c r="N73" s="71"/>
+      <c r="A73" s="104"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="105"/>
+      <c r="N73" s="106"/>
     </row>
     <row r="74" spans="1:14">
-      <c r="A74" s="69"/>
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="70"/>
-      <c r="N74" s="71"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="106"/>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75" s="69"/>
-      <c r="B75" s="70"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="70"/>
-      <c r="N75" s="71"/>
+      <c r="A75" s="104"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="106"/>
     </row>
     <row r="76" spans="1:14">
-      <c r="A76" s="69"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-      <c r="J76" s="70"/>
-      <c r="K76" s="70"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="70"/>
-      <c r="N76" s="71"/>
+      <c r="A76" s="104"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="106"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="A77" s="69"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="70"/>
-      <c r="M77" s="70"/>
-      <c r="N77" s="71"/>
+      <c r="A77" s="104"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="106"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="A78" s="69"/>
-      <c r="B78" s="70"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="70"/>
-      <c r="H78" s="70"/>
-      <c r="I78" s="70"/>
-      <c r="J78" s="70"/>
-      <c r="K78" s="70"/>
-      <c r="L78" s="70"/>
-      <c r="M78" s="70"/>
-      <c r="N78" s="71"/>
+      <c r="A78" s="104"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="105"/>
+      <c r="M78" s="105"/>
+      <c r="N78" s="106"/>
     </row>
     <row r="79" spans="1:14">
-      <c r="A79" s="69"/>
-      <c r="B79" s="70"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="M79" s="70"/>
-      <c r="N79" s="71"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="105"/>
+      <c r="N79" s="106"/>
     </row>
     <row r="80" spans="1:14">
-      <c r="A80" s="69"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
-      <c r="I80" s="70"/>
-      <c r="J80" s="70"/>
-      <c r="K80" s="70"/>
-      <c r="L80" s="70"/>
-      <c r="M80" s="70"/>
-      <c r="N80" s="71"/>
+      <c r="A80" s="104"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="105"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="105"/>
+      <c r="M80" s="105"/>
+      <c r="N80" s="106"/>
     </row>
     <row r="81" spans="1:14">
-      <c r="A81" s="69"/>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
-      <c r="H81" s="70"/>
-      <c r="I81" s="70"/>
-      <c r="J81" s="70"/>
-      <c r="K81" s="70"/>
-      <c r="L81" s="70"/>
-      <c r="M81" s="70"/>
-      <c r="N81" s="71"/>
+      <c r="A81" s="104"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="105"/>
+      <c r="M81" s="105"/>
+      <c r="N81" s="106"/>
     </row>
     <row r="82" spans="1:14">
-      <c r="A82" s="69"/>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="70"/>
-      <c r="H82" s="70"/>
-      <c r="I82" s="70"/>
-      <c r="J82" s="70"/>
-      <c r="K82" s="70"/>
-      <c r="L82" s="70"/>
-      <c r="M82" s="70"/>
-      <c r="N82" s="71"/>
+      <c r="A82" s="104"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="106"/>
     </row>
     <row r="83" spans="1:14">
-      <c r="A83" s="72"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="73"/>
-      <c r="L83" s="73"/>
-      <c r="M83" s="73"/>
-      <c r="N83" s="74"/>
+      <c r="A83" s="107"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="108"/>
+      <c r="H83" s="108"/>
+      <c r="I83" s="108"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="108"/>
+      <c r="L83" s="108"/>
+      <c r="M83" s="108"/>
+      <c r="N83" s="109"/>
     </row>
     <row r="84" spans="1:14" ht="15.75">
-      <c r="A84" s="63" t="s">
+      <c r="A84" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
-      <c r="M84" s="64"/>
-      <c r="N84" s="65"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
+      <c r="L84" s="71"/>
+      <c r="M84" s="71"/>
+      <c r="N84" s="72"/>
     </row>
     <row r="85" spans="1:14">
-      <c r="A85" s="66" t="s">
+      <c r="A85" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="68"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="102"/>
+      <c r="I85" s="102"/>
+      <c r="J85" s="102"/>
+      <c r="K85" s="102"/>
+      <c r="L85" s="102"/>
+      <c r="M85" s="102"/>
+      <c r="N85" s="103"/>
     </row>
     <row r="86" spans="1:14">
-      <c r="A86" s="69"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="H86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="70"/>
-      <c r="M86" s="70"/>
-      <c r="N86" s="71"/>
+      <c r="A86" s="104"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="105"/>
+      <c r="M86" s="105"/>
+      <c r="N86" s="106"/>
     </row>
     <row r="87" spans="1:14">
-      <c r="A87" s="69"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="70"/>
-      <c r="M87" s="70"/>
-      <c r="N87" s="71"/>
+      <c r="A87" s="104"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="105"/>
+      <c r="M87" s="105"/>
+      <c r="N87" s="106"/>
     </row>
     <row r="88" spans="1:14">
-      <c r="A88" s="69"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="71"/>
+      <c r="A88" s="104"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="105"/>
+      <c r="M88" s="105"/>
+      <c r="N88" s="106"/>
     </row>
     <row r="89" spans="1:14">
-      <c r="A89" s="69"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="70"/>
-      <c r="N89" s="71"/>
+      <c r="A89" s="104"/>
+      <c r="B89" s="105"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="105"/>
+      <c r="I89" s="105"/>
+      <c r="J89" s="105"/>
+      <c r="K89" s="105"/>
+      <c r="L89" s="105"/>
+      <c r="M89" s="105"/>
+      <c r="N89" s="106"/>
     </row>
     <row r="90" spans="1:14">
-      <c r="A90" s="69"/>
-      <c r="B90" s="70"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="70"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="70"/>
-      <c r="N90" s="71"/>
+      <c r="A90" s="104"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="105"/>
+      <c r="J90" s="105"/>
+      <c r="K90" s="105"/>
+      <c r="L90" s="105"/>
+      <c r="M90" s="105"/>
+      <c r="N90" s="106"/>
     </row>
     <row r="91" spans="1:14">
-      <c r="A91" s="69"/>
-      <c r="B91" s="70"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="H91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="M91" s="70"/>
-      <c r="N91" s="71"/>
+      <c r="A91" s="104"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="106"/>
     </row>
     <row r="92" spans="1:14">
-      <c r="A92" s="69"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="70"/>
-      <c r="I92" s="70"/>
-      <c r="J92" s="70"/>
-      <c r="K92" s="70"/>
-      <c r="L92" s="70"/>
-      <c r="M92" s="70"/>
-      <c r="N92" s="71"/>
+      <c r="A92" s="104"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="105"/>
+      <c r="J92" s="105"/>
+      <c r="K92" s="105"/>
+      <c r="L92" s="105"/>
+      <c r="M92" s="105"/>
+      <c r="N92" s="106"/>
     </row>
     <row r="93" spans="1:14">
-      <c r="A93" s="69"/>
-      <c r="B93" s="70"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="70"/>
-      <c r="I93" s="70"/>
-      <c r="J93" s="70"/>
-      <c r="K93" s="70"/>
-      <c r="L93" s="70"/>
-      <c r="M93" s="70"/>
-      <c r="N93" s="71"/>
+      <c r="A93" s="104"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
+      <c r="M93" s="105"/>
+      <c r="N93" s="106"/>
     </row>
     <row r="94" spans="1:14">
-      <c r="A94" s="69"/>
-      <c r="B94" s="70"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="70"/>
-      <c r="K94" s="70"/>
-      <c r="L94" s="70"/>
-      <c r="M94" s="70"/>
-      <c r="N94" s="71"/>
+      <c r="A94" s="104"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="105"/>
+      <c r="F94" s="105"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="105"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="105"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="105"/>
+      <c r="M94" s="105"/>
+      <c r="N94" s="106"/>
     </row>
     <row r="95" spans="1:14">
-      <c r="A95" s="69"/>
-      <c r="B95" s="70"/>
-      <c r="C95" s="70"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="70"/>
-      <c r="L95" s="70"/>
-      <c r="M95" s="70"/>
-      <c r="N95" s="71"/>
+      <c r="A95" s="104"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="105"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="105"/>
+      <c r="K95" s="105"/>
+      <c r="L95" s="105"/>
+      <c r="M95" s="105"/>
+      <c r="N95" s="106"/>
     </row>
     <row r="96" spans="1:14">
-      <c r="A96" s="72"/>
-      <c r="B96" s="73"/>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="73"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="73"/>
-      <c r="J96" s="73"/>
-      <c r="K96" s="73"/>
-      <c r="L96" s="73"/>
-      <c r="M96" s="73"/>
-      <c r="N96" s="74"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="108"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="108"/>
+      <c r="F96" s="108"/>
+      <c r="G96" s="108"/>
+      <c r="H96" s="108"/>
+      <c r="I96" s="108"/>
+      <c r="J96" s="108"/>
+      <c r="K96" s="108"/>
+      <c r="L96" s="108"/>
+      <c r="M96" s="108"/>
+      <c r="N96" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A71:N71"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A84:N84"/>
+    <mergeCell ref="A85:N96"/>
+    <mergeCell ref="A72:N83"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N19"/>
     <mergeCell ref="A54:N54"/>
@@ -5674,12 +5680,6 @@
     <mergeCell ref="A21:N38"/>
     <mergeCell ref="A58:N58"/>
     <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A71:N71"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A84:N84"/>
-    <mergeCell ref="A85:N96"/>
-    <mergeCell ref="A72:N83"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5702,2088 +5702,2088 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="15.75">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="104" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="65"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="72"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="85" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="105" t="s">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="87"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="84"/>
     </row>
     <row r="3" spans="1:42">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="89"/>
-      <c r="AP3" s="90"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="87"/>
     </row>
     <row r="4" spans="1:42">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="89"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="90"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="87"/>
     </row>
     <row r="5" spans="1:42">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="89"/>
-      <c r="AG5" s="89"/>
-      <c r="AH5" s="89"/>
-      <c r="AI5" s="89"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="89"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="90"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="87"/>
     </row>
     <row r="6" spans="1:42">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="89"/>
-      <c r="AH6" s="89"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="90"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="86"/>
+      <c r="AP6" s="87"/>
     </row>
     <row r="7" spans="1:42" ht="15" customHeight="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="115" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="121" t="s">
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="116"/>
-      <c r="AN7" s="116"/>
-      <c r="AO7" s="116"/>
-      <c r="AP7" s="116"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="123"/>
+      <c r="AM7" s="123"/>
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="123"/>
+      <c r="AP7" s="123"/>
     </row>
     <row r="8" spans="1:42" ht="15" customHeight="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="117"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="118"/>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="118"/>
-      <c r="AK8" s="118"/>
-      <c r="AL8" s="118"/>
-      <c r="AM8" s="118"/>
-      <c r="AN8" s="118"/>
-      <c r="AO8" s="118"/>
-      <c r="AP8" s="118"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="125"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="125"/>
+      <c r="AH8" s="125"/>
+      <c r="AI8" s="125"/>
+      <c r="AJ8" s="125"/>
+      <c r="AK8" s="125"/>
+      <c r="AL8" s="125"/>
+      <c r="AM8" s="125"/>
+      <c r="AN8" s="125"/>
+      <c r="AO8" s="125"/>
+      <c r="AP8" s="125"/>
     </row>
     <row r="9" spans="1:42" ht="15" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="118"/>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="118"/>
-      <c r="AH9" s="118"/>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="118"/>
-      <c r="AN9" s="118"/>
-      <c r="AO9" s="118"/>
-      <c r="AP9" s="118"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="125"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="125"/>
+      <c r="AJ9" s="125"/>
+      <c r="AK9" s="125"/>
+      <c r="AL9" s="125"/>
+      <c r="AM9" s="125"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="125"/>
+      <c r="AP9" s="125"/>
     </row>
     <row r="10" spans="1:42" ht="15" customHeight="1">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="118"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="118"/>
-      <c r="AN10" s="118"/>
-      <c r="AO10" s="118"/>
-      <c r="AP10" s="118"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="125"/>
+      <c r="AJ10" s="125"/>
+      <c r="AK10" s="125"/>
+      <c r="AL10" s="125"/>
+      <c r="AM10" s="125"/>
+      <c r="AN10" s="125"/>
+      <c r="AO10" s="125"/>
+      <c r="AP10" s="125"/>
     </row>
     <row r="11" spans="1:42" ht="15" customHeight="1">
-      <c r="A11" s="109"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="118"/>
-      <c r="AE11" s="118"/>
-      <c r="AF11" s="118"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="118"/>
-      <c r="AN11" s="118"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="118"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="125"/>
+      <c r="AJ11" s="125"/>
+      <c r="AK11" s="125"/>
+      <c r="AL11" s="125"/>
+      <c r="AM11" s="125"/>
+      <c r="AN11" s="125"/>
+      <c r="AO11" s="125"/>
+      <c r="AP11" s="125"/>
     </row>
     <row r="12" spans="1:42" ht="15" customHeight="1">
-      <c r="A12" s="109"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="118"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="118"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="118"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="118"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="118"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="118"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="117"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="118"/>
-      <c r="AF12" s="118"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="118"/>
-      <c r="AN12" s="118"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="118"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="124"/>
+      <c r="AD12" s="125"/>
+      <c r="AE12" s="125"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="125"/>
+      <c r="AJ12" s="125"/>
+      <c r="AK12" s="125"/>
+      <c r="AL12" s="125"/>
+      <c r="AM12" s="125"/>
+      <c r="AN12" s="125"/>
+      <c r="AO12" s="125"/>
+      <c r="AP12" s="125"/>
     </row>
     <row r="13" spans="1:42" ht="15" customHeight="1">
-      <c r="A13" s="109"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="117"/>
-      <c r="AD13" s="118"/>
-      <c r="AE13" s="118"/>
-      <c r="AF13" s="118"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="118"/>
-      <c r="AN13" s="118"/>
-      <c r="AO13" s="118"/>
-      <c r="AP13" s="118"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="125"/>
+      <c r="AJ13" s="125"/>
+      <c r="AK13" s="125"/>
+      <c r="AL13" s="125"/>
+      <c r="AM13" s="125"/>
+      <c r="AN13" s="125"/>
+      <c r="AO13" s="125"/>
+      <c r="AP13" s="125"/>
     </row>
     <row r="14" spans="1:42" ht="15" customHeight="1">
-      <c r="A14" s="109"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="117"/>
-      <c r="AD14" s="118"/>
-      <c r="AE14" s="118"/>
-      <c r="AF14" s="118"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="118"/>
-      <c r="AN14" s="118"/>
-      <c r="AO14" s="118"/>
-      <c r="AP14" s="118"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="125"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="125"/>
+      <c r="AJ14" s="125"/>
+      <c r="AK14" s="125"/>
+      <c r="AL14" s="125"/>
+      <c r="AM14" s="125"/>
+      <c r="AN14" s="125"/>
+      <c r="AO14" s="125"/>
+      <c r="AP14" s="125"/>
     </row>
     <row r="15" spans="1:42" ht="15" customHeight="1">
-      <c r="A15" s="109"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="117"/>
-      <c r="AD15" s="118"/>
-      <c r="AE15" s="118"/>
-      <c r="AF15" s="118"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="125"/>
+      <c r="AJ15" s="125"/>
+      <c r="AK15" s="125"/>
+      <c r="AL15" s="125"/>
+      <c r="AM15" s="125"/>
+      <c r="AN15" s="125"/>
+      <c r="AO15" s="125"/>
+      <c r="AP15" s="125"/>
     </row>
     <row r="16" spans="1:42" ht="15" customHeight="1">
-      <c r="A16" s="109"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="124"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="125"/>
+      <c r="AK16" s="125"/>
+      <c r="AL16" s="125"/>
+      <c r="AM16" s="125"/>
+      <c r="AN16" s="125"/>
+      <c r="AO16" s="125"/>
+      <c r="AP16" s="125"/>
     </row>
     <row r="17" spans="1:42" ht="15" customHeight="1">
-      <c r="A17" s="109"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="118"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="118"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="118"/>
-      <c r="AN17" s="118"/>
-      <c r="AO17" s="118"/>
-      <c r="AP17" s="118"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="125"/>
+      <c r="AJ17" s="125"/>
+      <c r="AK17" s="125"/>
+      <c r="AL17" s="125"/>
+      <c r="AM17" s="125"/>
+      <c r="AN17" s="125"/>
+      <c r="AO17" s="125"/>
+      <c r="AP17" s="125"/>
     </row>
     <row r="18" spans="1:42" ht="15" customHeight="1">
-      <c r="A18" s="109"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="117"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="118"/>
-      <c r="AN18" s="118"/>
-      <c r="AO18" s="118"/>
-      <c r="AP18" s="118"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="124"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="125"/>
+      <c r="AJ18" s="125"/>
+      <c r="AK18" s="125"/>
+      <c r="AL18" s="125"/>
+      <c r="AM18" s="125"/>
+      <c r="AN18" s="125"/>
+      <c r="AO18" s="125"/>
+      <c r="AP18" s="125"/>
     </row>
     <row r="19" spans="1:42" ht="15" customHeight="1">
-      <c r="A19" s="109"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="117"/>
-      <c r="AD19" s="118"/>
-      <c r="AE19" s="118"/>
-      <c r="AF19" s="118"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="118"/>
-      <c r="AN19" s="118"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="118"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="125"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="125"/>
+      <c r="AJ19" s="125"/>
+      <c r="AK19" s="125"/>
+      <c r="AL19" s="125"/>
+      <c r="AM19" s="125"/>
+      <c r="AN19" s="125"/>
+      <c r="AO19" s="125"/>
+      <c r="AP19" s="125"/>
     </row>
     <row r="20" spans="1:42" ht="15" customHeight="1">
-      <c r="A20" s="109"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="118"/>
-      <c r="AF20" s="118"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="118"/>
-      <c r="AN20" s="118"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="118"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="124"/>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="125"/>
+      <c r="AJ20" s="125"/>
+      <c r="AK20" s="125"/>
+      <c r="AL20" s="125"/>
+      <c r="AM20" s="125"/>
+      <c r="AN20" s="125"/>
+      <c r="AO20" s="125"/>
+      <c r="AP20" s="125"/>
     </row>
     <row r="21" spans="1:42" ht="15" customHeight="1">
-      <c r="A21" s="109"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="117"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="118"/>
-      <c r="AF21" s="118"/>
-      <c r="AG21" s="118"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="118"/>
-      <c r="AN21" s="118"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="118"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="125"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="125"/>
+      <c r="AE21" s="125"/>
+      <c r="AF21" s="125"/>
+      <c r="AG21" s="125"/>
+      <c r="AH21" s="125"/>
+      <c r="AI21" s="125"/>
+      <c r="AJ21" s="125"/>
+      <c r="AK21" s="125"/>
+      <c r="AL21" s="125"/>
+      <c r="AM21" s="125"/>
+      <c r="AN21" s="125"/>
+      <c r="AO21" s="125"/>
+      <c r="AP21" s="125"/>
     </row>
     <row r="22" spans="1:42" ht="15" customHeight="1">
-      <c r="A22" s="109"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="118"/>
-      <c r="AE22" s="118"/>
-      <c r="AF22" s="118"/>
-      <c r="AG22" s="118"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="118"/>
-      <c r="AN22" s="118"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="118"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="124"/>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="125"/>
+      <c r="AH22" s="125"/>
+      <c r="AI22" s="125"/>
+      <c r="AJ22" s="125"/>
+      <c r="AK22" s="125"/>
+      <c r="AL22" s="125"/>
+      <c r="AM22" s="125"/>
+      <c r="AN22" s="125"/>
+      <c r="AO22" s="125"/>
+      <c r="AP22" s="125"/>
     </row>
     <row r="23" spans="1:42" ht="15" customHeight="1">
-      <c r="A23" s="109"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="118"/>
-      <c r="AF23" s="118"/>
-      <c r="AG23" s="118"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="118"/>
-      <c r="AJ23" s="118"/>
-      <c r="AK23" s="118"/>
-      <c r="AL23" s="118"/>
-      <c r="AM23" s="118"/>
-      <c r="AN23" s="118"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="118"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="124"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="125"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="124"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="125"/>
+      <c r="AI23" s="125"/>
+      <c r="AJ23" s="125"/>
+      <c r="AK23" s="125"/>
+      <c r="AL23" s="125"/>
+      <c r="AM23" s="125"/>
+      <c r="AN23" s="125"/>
+      <c r="AO23" s="125"/>
+      <c r="AP23" s="125"/>
     </row>
     <row r="24" spans="1:42" ht="15" customHeight="1">
-      <c r="A24" s="109"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="118"/>
-      <c r="AE24" s="118"/>
-      <c r="AF24" s="118"/>
-      <c r="AG24" s="118"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="118"/>
-      <c r="AJ24" s="118"/>
-      <c r="AK24" s="118"/>
-      <c r="AL24" s="118"/>
-      <c r="AM24" s="118"/>
-      <c r="AN24" s="118"/>
-      <c r="AO24" s="118"/>
-      <c r="AP24" s="118"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="124"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="125"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="124"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="125"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="125"/>
+      <c r="AJ24" s="125"/>
+      <c r="AK24" s="125"/>
+      <c r="AL24" s="125"/>
+      <c r="AM24" s="125"/>
+      <c r="AN24" s="125"/>
+      <c r="AO24" s="125"/>
+      <c r="AP24" s="125"/>
     </row>
     <row r="25" spans="1:42" ht="15" customHeight="1">
-      <c r="A25" s="109"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="118"/>
-      <c r="AJ25" s="118"/>
-      <c r="AK25" s="118"/>
-      <c r="AL25" s="118"/>
-      <c r="AM25" s="118"/>
-      <c r="AN25" s="118"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="118"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="125"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="124"/>
+      <c r="AD25" s="125"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="125"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
+      <c r="AI25" s="125"/>
+      <c r="AJ25" s="125"/>
+      <c r="AK25" s="125"/>
+      <c r="AL25" s="125"/>
+      <c r="AM25" s="125"/>
+      <c r="AN25" s="125"/>
+      <c r="AO25" s="125"/>
+      <c r="AP25" s="125"/>
     </row>
     <row r="26" spans="1:42" ht="15" customHeight="1">
-      <c r="A26" s="109"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="118"/>
-      <c r="AE26" s="118"/>
-      <c r="AF26" s="118"/>
-      <c r="AG26" s="118"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="118"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="118"/>
-      <c r="AL26" s="118"/>
-      <c r="AM26" s="118"/>
-      <c r="AN26" s="118"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="118"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="125"/>
+      <c r="T26" s="125"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="124"/>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="125"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="125"/>
+      <c r="AH26" s="125"/>
+      <c r="AI26" s="125"/>
+      <c r="AJ26" s="125"/>
+      <c r="AK26" s="125"/>
+      <c r="AL26" s="125"/>
+      <c r="AM26" s="125"/>
+      <c r="AN26" s="125"/>
+      <c r="AO26" s="125"/>
+      <c r="AP26" s="125"/>
     </row>
     <row r="27" spans="1:42" ht="15" customHeight="1">
-      <c r="A27" s="109"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="117"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="118"/>
-      <c r="AE27" s="118"/>
-      <c r="AF27" s="118"/>
-      <c r="AG27" s="118"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="118"/>
-      <c r="AJ27" s="118"/>
-      <c r="AK27" s="118"/>
-      <c r="AL27" s="118"/>
-      <c r="AM27" s="118"/>
-      <c r="AN27" s="118"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="118"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="124"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="125"/>
+      <c r="AB27" s="125"/>
+      <c r="AC27" s="124"/>
+      <c r="AD27" s="125"/>
+      <c r="AE27" s="125"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="125"/>
+      <c r="AH27" s="125"/>
+      <c r="AI27" s="125"/>
+      <c r="AJ27" s="125"/>
+      <c r="AK27" s="125"/>
+      <c r="AL27" s="125"/>
+      <c r="AM27" s="125"/>
+      <c r="AN27" s="125"/>
+      <c r="AO27" s="125"/>
+      <c r="AP27" s="125"/>
     </row>
     <row r="28" spans="1:42" ht="15" customHeight="1">
-      <c r="A28" s="109"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="118"/>
-      <c r="AE28" s="118"/>
-      <c r="AF28" s="118"/>
-      <c r="AG28" s="118"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="118"/>
-      <c r="AJ28" s="118"/>
-      <c r="AK28" s="118"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="118"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="124"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="125"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="125"/>
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="125"/>
+      <c r="AB28" s="125"/>
+      <c r="AC28" s="124"/>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="125"/>
+      <c r="AH28" s="125"/>
+      <c r="AI28" s="125"/>
+      <c r="AJ28" s="125"/>
+      <c r="AK28" s="125"/>
+      <c r="AL28" s="125"/>
+      <c r="AM28" s="125"/>
+      <c r="AN28" s="125"/>
+      <c r="AO28" s="125"/>
+      <c r="AP28" s="125"/>
     </row>
     <row r="29" spans="1:42" ht="15" customHeight="1">
-      <c r="A29" s="109"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="117"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="118"/>
-      <c r="AE29" s="118"/>
-      <c r="AF29" s="118"/>
-      <c r="AG29" s="118"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="118"/>
-      <c r="AJ29" s="118"/>
-      <c r="AK29" s="118"/>
-      <c r="AL29" s="118"/>
-      <c r="AM29" s="118"/>
-      <c r="AN29" s="118"/>
-      <c r="AO29" s="118"/>
-      <c r="AP29" s="118"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="118"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="125"/>
+      <c r="AJ29" s="125"/>
+      <c r="AK29" s="125"/>
+      <c r="AL29" s="125"/>
+      <c r="AM29" s="125"/>
+      <c r="AN29" s="125"/>
+      <c r="AO29" s="125"/>
+      <c r="AP29" s="125"/>
     </row>
     <row r="30" spans="1:42" ht="15" customHeight="1">
-      <c r="A30" s="109"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="117"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="118"/>
-      <c r="AE30" s="118"/>
-      <c r="AF30" s="118"/>
-      <c r="AG30" s="118"/>
-      <c r="AH30" s="118"/>
-      <c r="AI30" s="118"/>
-      <c r="AJ30" s="118"/>
-      <c r="AK30" s="118"/>
-      <c r="AL30" s="118"/>
-      <c r="AM30" s="118"/>
-      <c r="AN30" s="118"/>
-      <c r="AO30" s="118"/>
-      <c r="AP30" s="118"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="118"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="125"/>
+      <c r="Q30" s="125"/>
+      <c r="R30" s="125"/>
+      <c r="S30" s="125"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="125"/>
+      <c r="V30" s="125"/>
+      <c r="W30" s="125"/>
+      <c r="X30" s="125"/>
+      <c r="Y30" s="125"/>
+      <c r="Z30" s="125"/>
+      <c r="AA30" s="125"/>
+      <c r="AB30" s="125"/>
+      <c r="AC30" s="124"/>
+      <c r="AD30" s="125"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="125"/>
+      <c r="AH30" s="125"/>
+      <c r="AI30" s="125"/>
+      <c r="AJ30" s="125"/>
+      <c r="AK30" s="125"/>
+      <c r="AL30" s="125"/>
+      <c r="AM30" s="125"/>
+      <c r="AN30" s="125"/>
+      <c r="AO30" s="125"/>
+      <c r="AP30" s="125"/>
     </row>
     <row r="31" spans="1:42" ht="15" customHeight="1">
-      <c r="A31" s="109"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="118"/>
-      <c r="AE31" s="118"/>
-      <c r="AF31" s="118"/>
-      <c r="AG31" s="118"/>
-      <c r="AH31" s="118"/>
-      <c r="AI31" s="118"/>
-      <c r="AJ31" s="118"/>
-      <c r="AK31" s="118"/>
-      <c r="AL31" s="118"/>
-      <c r="AM31" s="118"/>
-      <c r="AN31" s="118"/>
-      <c r="AO31" s="118"/>
-      <c r="AP31" s="118"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
+      <c r="N31" s="118"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
+      <c r="T31" s="125"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
+      <c r="W31" s="125"/>
+      <c r="X31" s="125"/>
+      <c r="Y31" s="125"/>
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="125"/>
+      <c r="AB31" s="125"/>
+      <c r="AC31" s="124"/>
+      <c r="AD31" s="125"/>
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="125"/>
+      <c r="AH31" s="125"/>
+      <c r="AI31" s="125"/>
+      <c r="AJ31" s="125"/>
+      <c r="AK31" s="125"/>
+      <c r="AL31" s="125"/>
+      <c r="AM31" s="125"/>
+      <c r="AN31" s="125"/>
+      <c r="AO31" s="125"/>
+      <c r="AP31" s="125"/>
     </row>
     <row r="32" spans="1:42" ht="15" customHeight="1">
-      <c r="A32" s="109"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="118"/>
-      <c r="AE32" s="118"/>
-      <c r="AF32" s="118"/>
-      <c r="AG32" s="118"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="118"/>
-      <c r="AJ32" s="118"/>
-      <c r="AK32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="124"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
+      <c r="R32" s="125"/>
+      <c r="S32" s="125"/>
+      <c r="T32" s="125"/>
+      <c r="U32" s="125"/>
+      <c r="V32" s="125"/>
+      <c r="W32" s="125"/>
+      <c r="X32" s="125"/>
+      <c r="Y32" s="125"/>
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="125"/>
+      <c r="AB32" s="125"/>
+      <c r="AC32" s="124"/>
+      <c r="AD32" s="125"/>
+      <c r="AE32" s="125"/>
+      <c r="AF32" s="125"/>
+      <c r="AG32" s="125"/>
+      <c r="AH32" s="125"/>
+      <c r="AI32" s="125"/>
+      <c r="AJ32" s="125"/>
+      <c r="AK32" s="125"/>
+      <c r="AL32" s="125"/>
+      <c r="AM32" s="125"/>
+      <c r="AN32" s="125"/>
+      <c r="AO32" s="125"/>
+      <c r="AP32" s="125"/>
     </row>
     <row r="33" spans="1:42" ht="15" customHeight="1">
-      <c r="A33" s="109"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="118"/>
-      <c r="AE33" s="118"/>
-      <c r="AF33" s="118"/>
-      <c r="AG33" s="118"/>
-      <c r="AH33" s="118"/>
-      <c r="AI33" s="118"/>
-      <c r="AJ33" s="118"/>
-      <c r="AK33" s="118"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="125"/>
+      <c r="Q33" s="125"/>
+      <c r="R33" s="125"/>
+      <c r="S33" s="125"/>
+      <c r="T33" s="125"/>
+      <c r="U33" s="125"/>
+      <c r="V33" s="125"/>
+      <c r="W33" s="125"/>
+      <c r="X33" s="125"/>
+      <c r="Y33" s="125"/>
+      <c r="Z33" s="125"/>
+      <c r="AA33" s="125"/>
+      <c r="AB33" s="125"/>
+      <c r="AC33" s="124"/>
+      <c r="AD33" s="125"/>
+      <c r="AE33" s="125"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="125"/>
+      <c r="AJ33" s="125"/>
+      <c r="AK33" s="125"/>
+      <c r="AL33" s="125"/>
+      <c r="AM33" s="125"/>
+      <c r="AN33" s="125"/>
+      <c r="AO33" s="125"/>
+      <c r="AP33" s="125"/>
     </row>
     <row r="34" spans="1:42" ht="15" customHeight="1">
-      <c r="A34" s="109"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="118"/>
-      <c r="AE34" s="118"/>
-      <c r="AF34" s="118"/>
-      <c r="AG34" s="118"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="118"/>
-      <c r="AJ34" s="118"/>
-      <c r="AK34" s="118"/>
-      <c r="AL34" s="118"/>
-      <c r="AM34" s="118"/>
-      <c r="AN34" s="118"/>
-      <c r="AO34" s="118"/>
-      <c r="AP34" s="118"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="124"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="125"/>
+      <c r="S34" s="125"/>
+      <c r="T34" s="125"/>
+      <c r="U34" s="125"/>
+      <c r="V34" s="125"/>
+      <c r="W34" s="125"/>
+      <c r="X34" s="125"/>
+      <c r="Y34" s="125"/>
+      <c r="Z34" s="125"/>
+      <c r="AA34" s="125"/>
+      <c r="AB34" s="125"/>
+      <c r="AC34" s="124"/>
+      <c r="AD34" s="125"/>
+      <c r="AE34" s="125"/>
+      <c r="AF34" s="125"/>
+      <c r="AG34" s="125"/>
+      <c r="AH34" s="125"/>
+      <c r="AI34" s="125"/>
+      <c r="AJ34" s="125"/>
+      <c r="AK34" s="125"/>
+      <c r="AL34" s="125"/>
+      <c r="AM34" s="125"/>
+      <c r="AN34" s="125"/>
+      <c r="AO34" s="125"/>
+      <c r="AP34" s="125"/>
     </row>
     <row r="35" spans="1:42" ht="15" customHeight="1">
-      <c r="A35" s="109"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="118"/>
-      <c r="Q35" s="118"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="118"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="118"/>
-      <c r="X35" s="118"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="118"/>
-      <c r="AA35" s="118"/>
-      <c r="AB35" s="118"/>
-      <c r="AC35" s="117"/>
-      <c r="AD35" s="118"/>
-      <c r="AE35" s="118"/>
-      <c r="AF35" s="118"/>
-      <c r="AG35" s="118"/>
-      <c r="AH35" s="118"/>
-      <c r="AI35" s="118"/>
-      <c r="AJ35" s="118"/>
-      <c r="AK35" s="118"/>
-      <c r="AL35" s="118"/>
-      <c r="AM35" s="118"/>
-      <c r="AN35" s="118"/>
-      <c r="AO35" s="118"/>
-      <c r="AP35" s="118"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="124"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
+      <c r="U35" s="125"/>
+      <c r="V35" s="125"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="125"/>
+      <c r="Y35" s="125"/>
+      <c r="Z35" s="125"/>
+      <c r="AA35" s="125"/>
+      <c r="AB35" s="125"/>
+      <c r="AC35" s="124"/>
+      <c r="AD35" s="125"/>
+      <c r="AE35" s="125"/>
+      <c r="AF35" s="125"/>
+      <c r="AG35" s="125"/>
+      <c r="AH35" s="125"/>
+      <c r="AI35" s="125"/>
+      <c r="AJ35" s="125"/>
+      <c r="AK35" s="125"/>
+      <c r="AL35" s="125"/>
+      <c r="AM35" s="125"/>
+      <c r="AN35" s="125"/>
+      <c r="AO35" s="125"/>
+      <c r="AP35" s="125"/>
     </row>
     <row r="36" spans="1:42" ht="15" customHeight="1">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="118"/>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="118"/>
-      <c r="Z36" s="118"/>
-      <c r="AA36" s="118"/>
-      <c r="AB36" s="118"/>
-      <c r="AC36" s="117"/>
-      <c r="AD36" s="118"/>
-      <c r="AE36" s="118"/>
-      <c r="AF36" s="118"/>
-      <c r="AG36" s="118"/>
-      <c r="AH36" s="118"/>
-      <c r="AI36" s="118"/>
-      <c r="AJ36" s="118"/>
-      <c r="AK36" s="118"/>
-      <c r="AL36" s="118"/>
-      <c r="AM36" s="118"/>
-      <c r="AN36" s="118"/>
-      <c r="AO36" s="118"/>
-      <c r="AP36" s="118"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="124"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
+      <c r="T36" s="125"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="125"/>
+      <c r="Y36" s="125"/>
+      <c r="Z36" s="125"/>
+      <c r="AA36" s="125"/>
+      <c r="AB36" s="125"/>
+      <c r="AC36" s="124"/>
+      <c r="AD36" s="125"/>
+      <c r="AE36" s="125"/>
+      <c r="AF36" s="125"/>
+      <c r="AG36" s="125"/>
+      <c r="AH36" s="125"/>
+      <c r="AI36" s="125"/>
+      <c r="AJ36" s="125"/>
+      <c r="AK36" s="125"/>
+      <c r="AL36" s="125"/>
+      <c r="AM36" s="125"/>
+      <c r="AN36" s="125"/>
+      <c r="AO36" s="125"/>
+      <c r="AP36" s="125"/>
     </row>
     <row r="37" spans="1:42" ht="15" customHeight="1">
-      <c r="A37" s="109"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="118"/>
-      <c r="Q37" s="118"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="118"/>
-      <c r="U37" s="118"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="118"/>
-      <c r="X37" s="118"/>
-      <c r="Y37" s="118"/>
-      <c r="Z37" s="118"/>
-      <c r="AA37" s="118"/>
-      <c r="AB37" s="118"/>
-      <c r="AC37" s="117"/>
-      <c r="AD37" s="118"/>
-      <c r="AE37" s="118"/>
-      <c r="AF37" s="118"/>
-      <c r="AG37" s="118"/>
-      <c r="AH37" s="118"/>
-      <c r="AI37" s="118"/>
-      <c r="AJ37" s="118"/>
-      <c r="AK37" s="118"/>
-      <c r="AL37" s="118"/>
-      <c r="AM37" s="118"/>
-      <c r="AN37" s="118"/>
-      <c r="AO37" s="118"/>
-      <c r="AP37" s="118"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="125"/>
+      <c r="S37" s="125"/>
+      <c r="T37" s="125"/>
+      <c r="U37" s="125"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="125"/>
+      <c r="X37" s="125"/>
+      <c r="Y37" s="125"/>
+      <c r="Z37" s="125"/>
+      <c r="AA37" s="125"/>
+      <c r="AB37" s="125"/>
+      <c r="AC37" s="124"/>
+      <c r="AD37" s="125"/>
+      <c r="AE37" s="125"/>
+      <c r="AF37" s="125"/>
+      <c r="AG37" s="125"/>
+      <c r="AH37" s="125"/>
+      <c r="AI37" s="125"/>
+      <c r="AJ37" s="125"/>
+      <c r="AK37" s="125"/>
+      <c r="AL37" s="125"/>
+      <c r="AM37" s="125"/>
+      <c r="AN37" s="125"/>
+      <c r="AO37" s="125"/>
+      <c r="AP37" s="125"/>
     </row>
     <row r="38" spans="1:42" ht="15" customHeight="1">
-      <c r="A38" s="109"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="118"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="118"/>
-      <c r="U38" s="118"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="118"/>
-      <c r="Y38" s="118"/>
-      <c r="Z38" s="118"/>
-      <c r="AA38" s="118"/>
-      <c r="AB38" s="118"/>
-      <c r="AC38" s="117"/>
-      <c r="AD38" s="118"/>
-      <c r="AE38" s="118"/>
-      <c r="AF38" s="118"/>
-      <c r="AG38" s="118"/>
-      <c r="AH38" s="118"/>
-      <c r="AI38" s="118"/>
-      <c r="AJ38" s="118"/>
-      <c r="AK38" s="118"/>
-      <c r="AL38" s="118"/>
-      <c r="AM38" s="118"/>
-      <c r="AN38" s="118"/>
-      <c r="AO38" s="118"/>
-      <c r="AP38" s="118"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="125"/>
+      <c r="T38" s="125"/>
+      <c r="U38" s="125"/>
+      <c r="V38" s="125"/>
+      <c r="W38" s="125"/>
+      <c r="X38" s="125"/>
+      <c r="Y38" s="125"/>
+      <c r="Z38" s="125"/>
+      <c r="AA38" s="125"/>
+      <c r="AB38" s="125"/>
+      <c r="AC38" s="124"/>
+      <c r="AD38" s="125"/>
+      <c r="AE38" s="125"/>
+      <c r="AF38" s="125"/>
+      <c r="AG38" s="125"/>
+      <c r="AH38" s="125"/>
+      <c r="AI38" s="125"/>
+      <c r="AJ38" s="125"/>
+      <c r="AK38" s="125"/>
+      <c r="AL38" s="125"/>
+      <c r="AM38" s="125"/>
+      <c r="AN38" s="125"/>
+      <c r="AO38" s="125"/>
+      <c r="AP38" s="125"/>
     </row>
     <row r="39" spans="1:42" ht="15" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="110"/>
-      <c r="M39" s="110"/>
-      <c r="N39" s="111"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="118"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="118"/>
-      <c r="U39" s="118"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="118"/>
-      <c r="X39" s="118"/>
-      <c r="Y39" s="118"/>
-      <c r="Z39" s="118"/>
-      <c r="AA39" s="118"/>
-      <c r="AB39" s="118"/>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="118"/>
-      <c r="AE39" s="118"/>
-      <c r="AF39" s="118"/>
-      <c r="AG39" s="118"/>
-      <c r="AH39" s="118"/>
-      <c r="AI39" s="118"/>
-      <c r="AJ39" s="118"/>
-      <c r="AK39" s="118"/>
-      <c r="AL39" s="118"/>
-      <c r="AM39" s="118"/>
-      <c r="AN39" s="118"/>
-      <c r="AO39" s="118"/>
-      <c r="AP39" s="118"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="124"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="125"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="125"/>
+      <c r="V39" s="125"/>
+      <c r="W39" s="125"/>
+      <c r="X39" s="125"/>
+      <c r="Y39" s="125"/>
+      <c r="Z39" s="125"/>
+      <c r="AA39" s="125"/>
+      <c r="AB39" s="125"/>
+      <c r="AC39" s="124"/>
+      <c r="AD39" s="125"/>
+      <c r="AE39" s="125"/>
+      <c r="AF39" s="125"/>
+      <c r="AG39" s="125"/>
+      <c r="AH39" s="125"/>
+      <c r="AI39" s="125"/>
+      <c r="AJ39" s="125"/>
+      <c r="AK39" s="125"/>
+      <c r="AL39" s="125"/>
+      <c r="AM39" s="125"/>
+      <c r="AN39" s="125"/>
+      <c r="AO39" s="125"/>
+      <c r="AP39" s="125"/>
     </row>
     <row r="40" spans="1:42" ht="15" customHeight="1">
-      <c r="A40" s="109"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="111"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="118"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="118"/>
-      <c r="U40" s="118"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="118"/>
-      <c r="X40" s="118"/>
-      <c r="Y40" s="118"/>
-      <c r="Z40" s="118"/>
-      <c r="AA40" s="118"/>
-      <c r="AB40" s="118"/>
-      <c r="AC40" s="117"/>
-      <c r="AD40" s="118"/>
-      <c r="AE40" s="118"/>
-      <c r="AF40" s="118"/>
-      <c r="AG40" s="118"/>
-      <c r="AH40" s="118"/>
-      <c r="AI40" s="118"/>
-      <c r="AJ40" s="118"/>
-      <c r="AK40" s="118"/>
-      <c r="AL40" s="118"/>
-      <c r="AM40" s="118"/>
-      <c r="AN40" s="118"/>
-      <c r="AO40" s="118"/>
-      <c r="AP40" s="118"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="124"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
+      <c r="T40" s="125"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
+      <c r="W40" s="125"/>
+      <c r="X40" s="125"/>
+      <c r="Y40" s="125"/>
+      <c r="Z40" s="125"/>
+      <c r="AA40" s="125"/>
+      <c r="AB40" s="125"/>
+      <c r="AC40" s="124"/>
+      <c r="AD40" s="125"/>
+      <c r="AE40" s="125"/>
+      <c r="AF40" s="125"/>
+      <c r="AG40" s="125"/>
+      <c r="AH40" s="125"/>
+      <c r="AI40" s="125"/>
+      <c r="AJ40" s="125"/>
+      <c r="AK40" s="125"/>
+      <c r="AL40" s="125"/>
+      <c r="AM40" s="125"/>
+      <c r="AN40" s="125"/>
+      <c r="AO40" s="125"/>
+      <c r="AP40" s="125"/>
     </row>
     <row r="41" spans="1:42" ht="15" customHeight="1">
-      <c r="A41" s="109"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="110"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="111"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="118"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="118"/>
-      <c r="U41" s="118"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="118"/>
-      <c r="X41" s="118"/>
-      <c r="Y41" s="118"/>
-      <c r="Z41" s="118"/>
-      <c r="AA41" s="118"/>
-      <c r="AB41" s="118"/>
-      <c r="AC41" s="117"/>
-      <c r="AD41" s="118"/>
-      <c r="AE41" s="118"/>
-      <c r="AF41" s="118"/>
-      <c r="AG41" s="118"/>
-      <c r="AH41" s="118"/>
-      <c r="AI41" s="118"/>
-      <c r="AJ41" s="118"/>
-      <c r="AK41" s="118"/>
-      <c r="AL41" s="118"/>
-      <c r="AM41" s="118"/>
-      <c r="AN41" s="118"/>
-      <c r="AO41" s="118"/>
-      <c r="AP41" s="118"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="118"/>
+      <c r="O41" s="124"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
+      <c r="T41" s="125"/>
+      <c r="U41" s="125"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
+      <c r="X41" s="125"/>
+      <c r="Y41" s="125"/>
+      <c r="Z41" s="125"/>
+      <c r="AA41" s="125"/>
+      <c r="AB41" s="125"/>
+      <c r="AC41" s="124"/>
+      <c r="AD41" s="125"/>
+      <c r="AE41" s="125"/>
+      <c r="AF41" s="125"/>
+      <c r="AG41" s="125"/>
+      <c r="AH41" s="125"/>
+      <c r="AI41" s="125"/>
+      <c r="AJ41" s="125"/>
+      <c r="AK41" s="125"/>
+      <c r="AL41" s="125"/>
+      <c r="AM41" s="125"/>
+      <c r="AN41" s="125"/>
+      <c r="AO41" s="125"/>
+      <c r="AP41" s="125"/>
     </row>
     <row r="42" spans="1:42" ht="15" customHeight="1">
-      <c r="A42" s="109"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="110"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="110"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="111"/>
-      <c r="O42" s="117"/>
-      <c r="P42" s="118"/>
-      <c r="Q42" s="118"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="118"/>
-      <c r="U42" s="118"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="118"/>
-      <c r="X42" s="118"/>
-      <c r="Y42" s="118"/>
-      <c r="Z42" s="118"/>
-      <c r="AA42" s="118"/>
-      <c r="AB42" s="118"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="118"/>
-      <c r="AF42" s="118"/>
-      <c r="AG42" s="118"/>
-      <c r="AH42" s="118"/>
-      <c r="AI42" s="118"/>
-      <c r="AJ42" s="118"/>
-      <c r="AK42" s="118"/>
-      <c r="AL42" s="118"/>
-      <c r="AM42" s="118"/>
-      <c r="AN42" s="118"/>
-      <c r="AO42" s="118"/>
-      <c r="AP42" s="118"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="118"/>
+      <c r="O42" s="124"/>
+      <c r="P42" s="125"/>
+      <c r="Q42" s="125"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="125"/>
+      <c r="T42" s="125"/>
+      <c r="U42" s="125"/>
+      <c r="V42" s="125"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="125"/>
+      <c r="Y42" s="125"/>
+      <c r="Z42" s="125"/>
+      <c r="AA42" s="125"/>
+      <c r="AB42" s="125"/>
+      <c r="AC42" s="124"/>
+      <c r="AD42" s="125"/>
+      <c r="AE42" s="125"/>
+      <c r="AF42" s="125"/>
+      <c r="AG42" s="125"/>
+      <c r="AH42" s="125"/>
+      <c r="AI42" s="125"/>
+      <c r="AJ42" s="125"/>
+      <c r="AK42" s="125"/>
+      <c r="AL42" s="125"/>
+      <c r="AM42" s="125"/>
+      <c r="AN42" s="125"/>
+      <c r="AO42" s="125"/>
+      <c r="AP42" s="125"/>
     </row>
     <row r="43" spans="1:42">
-      <c r="A43" s="109"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="110"/>
-      <c r="E43" s="110"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="110"/>
-      <c r="H43" s="110"/>
-      <c r="I43" s="110"/>
-      <c r="J43" s="110"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="110"/>
-      <c r="M43" s="110"/>
-      <c r="N43" s="111"/>
-      <c r="O43" s="117"/>
-      <c r="P43" s="118"/>
-      <c r="Q43" s="118"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="118"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="118"/>
-      <c r="W43" s="118"/>
-      <c r="X43" s="118"/>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="118"/>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="118"/>
-      <c r="AC43" s="117"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="118"/>
-      <c r="AF43" s="118"/>
-      <c r="AG43" s="118"/>
-      <c r="AH43" s="118"/>
-      <c r="AI43" s="118"/>
-      <c r="AJ43" s="118"/>
-      <c r="AK43" s="118"/>
-      <c r="AL43" s="118"/>
-      <c r="AM43" s="118"/>
-      <c r="AN43" s="118"/>
-      <c r="AO43" s="118"/>
-      <c r="AP43" s="118"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="117"/>
+      <c r="N43" s="118"/>
+      <c r="O43" s="124"/>
+      <c r="P43" s="125"/>
+      <c r="Q43" s="125"/>
+      <c r="R43" s="125"/>
+      <c r="S43" s="125"/>
+      <c r="T43" s="125"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
+      <c r="W43" s="125"/>
+      <c r="X43" s="125"/>
+      <c r="Y43" s="125"/>
+      <c r="Z43" s="125"/>
+      <c r="AA43" s="125"/>
+      <c r="AB43" s="125"/>
+      <c r="AC43" s="124"/>
+      <c r="AD43" s="125"/>
+      <c r="AE43" s="125"/>
+      <c r="AF43" s="125"/>
+      <c r="AG43" s="125"/>
+      <c r="AH43" s="125"/>
+      <c r="AI43" s="125"/>
+      <c r="AJ43" s="125"/>
+      <c r="AK43" s="125"/>
+      <c r="AL43" s="125"/>
+      <c r="AM43" s="125"/>
+      <c r="AN43" s="125"/>
+      <c r="AO43" s="125"/>
+      <c r="AP43" s="125"/>
     </row>
     <row r="44" spans="1:42">
-      <c r="A44" s="109"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="118"/>
-      <c r="Q44" s="118"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="118"/>
-      <c r="U44" s="118"/>
-      <c r="V44" s="118"/>
-      <c r="W44" s="118"/>
-      <c r="X44" s="118"/>
-      <c r="Y44" s="118"/>
-      <c r="Z44" s="118"/>
-      <c r="AA44" s="118"/>
-      <c r="AB44" s="118"/>
-      <c r="AC44" s="117"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="118"/>
-      <c r="AF44" s="118"/>
-      <c r="AG44" s="118"/>
-      <c r="AH44" s="118"/>
-      <c r="AI44" s="118"/>
-      <c r="AJ44" s="118"/>
-      <c r="AK44" s="118"/>
-      <c r="AL44" s="118"/>
-      <c r="AM44" s="118"/>
-      <c r="AN44" s="118"/>
-      <c r="AO44" s="118"/>
-      <c r="AP44" s="118"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="118"/>
+      <c r="O44" s="124"/>
+      <c r="P44" s="125"/>
+      <c r="Q44" s="125"/>
+      <c r="R44" s="125"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="125"/>
+      <c r="U44" s="125"/>
+      <c r="V44" s="125"/>
+      <c r="W44" s="125"/>
+      <c r="X44" s="125"/>
+      <c r="Y44" s="125"/>
+      <c r="Z44" s="125"/>
+      <c r="AA44" s="125"/>
+      <c r="AB44" s="125"/>
+      <c r="AC44" s="124"/>
+      <c r="AD44" s="125"/>
+      <c r="AE44" s="125"/>
+      <c r="AF44" s="125"/>
+      <c r="AG44" s="125"/>
+      <c r="AH44" s="125"/>
+      <c r="AI44" s="125"/>
+      <c r="AJ44" s="125"/>
+      <c r="AK44" s="125"/>
+      <c r="AL44" s="125"/>
+      <c r="AM44" s="125"/>
+      <c r="AN44" s="125"/>
+      <c r="AO44" s="125"/>
+      <c r="AP44" s="125"/>
     </row>
     <row r="45" spans="1:42">
-      <c r="A45" s="109"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="118"/>
-      <c r="T45" s="118"/>
-      <c r="U45" s="118"/>
-      <c r="V45" s="118"/>
-      <c r="W45" s="118"/>
-      <c r="X45" s="118"/>
-      <c r="Y45" s="118"/>
-      <c r="Z45" s="118"/>
-      <c r="AA45" s="118"/>
-      <c r="AB45" s="118"/>
-      <c r="AC45" s="117"/>
-      <c r="AD45" s="118"/>
-      <c r="AE45" s="118"/>
-      <c r="AF45" s="118"/>
-      <c r="AG45" s="118"/>
-      <c r="AH45" s="118"/>
-      <c r="AI45" s="118"/>
-      <c r="AJ45" s="118"/>
-      <c r="AK45" s="118"/>
-      <c r="AL45" s="118"/>
-      <c r="AM45" s="118"/>
-      <c r="AN45" s="118"/>
-      <c r="AO45" s="118"/>
-      <c r="AP45" s="118"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="118"/>
+      <c r="O45" s="124"/>
+      <c r="P45" s="125"/>
+      <c r="Q45" s="125"/>
+      <c r="R45" s="125"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="125"/>
+      <c r="U45" s="125"/>
+      <c r="V45" s="125"/>
+      <c r="W45" s="125"/>
+      <c r="X45" s="125"/>
+      <c r="Y45" s="125"/>
+      <c r="Z45" s="125"/>
+      <c r="AA45" s="125"/>
+      <c r="AB45" s="125"/>
+      <c r="AC45" s="124"/>
+      <c r="AD45" s="125"/>
+      <c r="AE45" s="125"/>
+      <c r="AF45" s="125"/>
+      <c r="AG45" s="125"/>
+      <c r="AH45" s="125"/>
+      <c r="AI45" s="125"/>
+      <c r="AJ45" s="125"/>
+      <c r="AK45" s="125"/>
+      <c r="AL45" s="125"/>
+      <c r="AM45" s="125"/>
+      <c r="AN45" s="125"/>
+      <c r="AO45" s="125"/>
+      <c r="AP45" s="125"/>
     </row>
     <row r="46" spans="1:42">
-      <c r="A46" s="109"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="110"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
-      <c r="V46" s="118"/>
-      <c r="W46" s="118"/>
-      <c r="X46" s="118"/>
-      <c r="Y46" s="118"/>
-      <c r="Z46" s="118"/>
-      <c r="AA46" s="118"/>
-      <c r="AB46" s="118"/>
-      <c r="AC46" s="117"/>
-      <c r="AD46" s="118"/>
-      <c r="AE46" s="118"/>
-      <c r="AF46" s="118"/>
-      <c r="AG46" s="118"/>
-      <c r="AH46" s="118"/>
-      <c r="AI46" s="118"/>
-      <c r="AJ46" s="118"/>
-      <c r="AK46" s="118"/>
-      <c r="AL46" s="118"/>
-      <c r="AM46" s="118"/>
-      <c r="AN46" s="118"/>
-      <c r="AO46" s="118"/>
-      <c r="AP46" s="118"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="124"/>
+      <c r="P46" s="125"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="125"/>
+      <c r="U46" s="125"/>
+      <c r="V46" s="125"/>
+      <c r="W46" s="125"/>
+      <c r="X46" s="125"/>
+      <c r="Y46" s="125"/>
+      <c r="Z46" s="125"/>
+      <c r="AA46" s="125"/>
+      <c r="AB46" s="125"/>
+      <c r="AC46" s="124"/>
+      <c r="AD46" s="125"/>
+      <c r="AE46" s="125"/>
+      <c r="AF46" s="125"/>
+      <c r="AG46" s="125"/>
+      <c r="AH46" s="125"/>
+      <c r="AI46" s="125"/>
+      <c r="AJ46" s="125"/>
+      <c r="AK46" s="125"/>
+      <c r="AL46" s="125"/>
+      <c r="AM46" s="125"/>
+      <c r="AN46" s="125"/>
+      <c r="AO46" s="125"/>
+      <c r="AP46" s="125"/>
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1">
-      <c r="A47" s="112"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="119"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="120"/>
-      <c r="R47" s="120"/>
-      <c r="S47" s="120"/>
-      <c r="T47" s="120"/>
-      <c r="U47" s="120"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="120"/>
-      <c r="X47" s="120"/>
-      <c r="Y47" s="120"/>
-      <c r="Z47" s="120"/>
-      <c r="AA47" s="120"/>
-      <c r="AB47" s="120"/>
-      <c r="AC47" s="119"/>
-      <c r="AD47" s="120"/>
-      <c r="AE47" s="120"/>
-      <c r="AF47" s="120"/>
-      <c r="AG47" s="120"/>
-      <c r="AH47" s="120"/>
-      <c r="AI47" s="120"/>
-      <c r="AJ47" s="120"/>
-      <c r="AK47" s="120"/>
-      <c r="AL47" s="120"/>
-      <c r="AM47" s="120"/>
-      <c r="AN47" s="120"/>
-      <c r="AO47" s="120"/>
-      <c r="AP47" s="120"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="126"/>
+      <c r="P47" s="127"/>
+      <c r="Q47" s="127"/>
+      <c r="R47" s="127"/>
+      <c r="S47" s="127"/>
+      <c r="T47" s="127"/>
+      <c r="U47" s="127"/>
+      <c r="V47" s="127"/>
+      <c r="W47" s="127"/>
+      <c r="X47" s="127"/>
+      <c r="Y47" s="127"/>
+      <c r="Z47" s="127"/>
+      <c r="AA47" s="127"/>
+      <c r="AB47" s="127"/>
+      <c r="AC47" s="126"/>
+      <c r="AD47" s="127"/>
+      <c r="AE47" s="127"/>
+      <c r="AF47" s="127"/>
+      <c r="AG47" s="127"/>
+      <c r="AH47" s="127"/>
+      <c r="AI47" s="127"/>
+      <c r="AJ47" s="127"/>
+      <c r="AK47" s="127"/>
+      <c r="AL47" s="127"/>
+      <c r="AM47" s="127"/>
+      <c r="AN47" s="127"/>
+      <c r="AO47" s="127"/>
+      <c r="AP47" s="127"/>
     </row>
     <row r="49" spans="14:30" ht="15.75">
       <c r="N49"/>
@@ -7951,64 +7951,64 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="124" t="s">
+      <c r="F6" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="125"/>
+      <c r="G6" s="132"/>
       <c r="H6" s="34"/>
-      <c r="I6" s="122" t="s">
+      <c r="I6" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="123"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="130"/>
     </row>
     <row r="7" spans="2:19" ht="21.75" thickTop="1" thickBot="1">
       <c r="B7" s="61"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="139" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="35"/>
-      <c r="I7" s="126" t="s">
+      <c r="I7" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126" t="s">
+      <c r="J7" s="133"/>
+      <c r="K7" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126" t="s">
+      <c r="L7" s="133"/>
+      <c r="M7" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126" t="s">
+      <c r="N7" s="133"/>
+      <c r="O7" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126" t="s">
+      <c r="P7" s="133"/>
+      <c r="Q7" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="127"/>
+      <c r="R7" s="134"/>
     </row>
     <row r="8" spans="2:19" ht="18" thickTop="1" thickBot="1">
       <c r="B8" s="62"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="133"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="140"/>
       <c r="H8" s="36"/>
       <c r="I8" s="9" t="s">
         <v>41</v>
@@ -8119,7 +8119,7 @@
     <row r="12" spans="2:19" ht="17.25" thickTop="1">
       <c r="B12" s="62"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="135" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="15"/>
@@ -8152,7 +8152,7 @@
     <row r="13" spans="2:19" ht="16.5">
       <c r="B13" s="62"/>
       <c r="C13" s="57"/>
-      <c r="D13" s="129"/>
+      <c r="D13" s="136"/>
       <c r="E13" s="15"/>
       <c r="F13" s="18" t="s">
         <v>43</v>
@@ -8577,8 +8577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8598,39 +8598,39 @@
   <sheetData>
     <row r="1" spans="2:5" s="49" customFormat="1" ht="16.5" thickBot="1"/>
     <row r="2" spans="2:5" ht="26.25" thickBot="1">
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="142" t="s">
-        <v>85</v>
+      <c r="D2" s="69" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="16.5">
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="136" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="4" spans="2:5" ht="33">
-      <c r="C4" s="137"/>
-      <c r="D4" s="138" t="s">
-        <v>80</v>
+      <c r="C4" s="142"/>
+      <c r="D4" s="65" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="16.5">
       <c r="C5" s="143" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="D5" s="66" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="33.75" thickBot="1">
       <c r="C6" s="144"/>
-      <c r="D6" s="140" t="s">
-        <v>84</v>
+      <c r="D6" s="67" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="49" customFormat="1"/>
@@ -8714,7 +8714,7 @@
       <c r="C17" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="63" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
       <c r="C18" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="63" t="s">
         <v>73</v>
       </c>
     </row>
